--- a/Resultater/arcingVoltage_630A_d4.xlsx
+++ b/Resultater/arcingVoltage_630A_d4.xlsx
@@ -90,6 +90,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -98,16 +99,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$A$1:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=0,6 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 0.6</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -3686,16 +3682,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=0,8 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 0.8</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7274,16 +7265,11 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$C$1:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.0</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -10862,16 +10848,17 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1,2 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -14450,16 +14437,17 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1.4 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.4</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -18038,16 +18026,17 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1.8 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.8</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -21626,16 +21615,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$G$1:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=2 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 2.0</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -25210,46 +25198,83 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="117102080"/>
-        <c:axId val="117103616"/>
+        <c:axId val="80567680"/>
+        <c:axId val="80816000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117102080"/>
+        <c:axId val="80567680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117103616"/>
-        <c:crosses val="autoZero"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="80816000"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117103616"/>
+        <c:axId val="80816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Voltage [kV]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117102080"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="80567680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3263087259723595E-2"/>
+          <c:y val="0.90240644668580305"/>
+          <c:w val="0.94152129042122157"/>
+          <c:h val="8.7793081048815391E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -25260,15 +25285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>156883</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25285,6 +25310,153 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>564776</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rett linje 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5898776" y="3286125"/>
+          <a:ext cx="12281648" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -25577,8 +25749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Resultater/arcingVoltage_630A_d4.xlsx
+++ b/Resultater/arcingVoltage_630A_d4.xlsx
@@ -25274,7 +25274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -25314,16 +25314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>654424</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25331,9 +25331,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5898776" y="3286125"/>
-          <a:ext cx="12281648" cy="9526"/>
+        <a:xfrm>
+          <a:off x="6181724" y="3295649"/>
+          <a:ext cx="9134476" cy="19051"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -25749,7 +25749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
